--- a/biology/Zoologie/Varg_(loup_mythique)/Varg_(loup_mythique).xlsx
+++ b/biology/Zoologie/Varg_(loup_mythique)/Varg_(loup_mythique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un varg désigne plusieurs loups monstrueux de la mythologie nordique. Ces créatures ont notamment influencé J. R. R. Tolkien dans son œuvre de fiction.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En vieux norrois, vargr (forme nominative) est dérivé du proto-germanique *wargaz[1].
-Le mot est souvent employé comme synonyme de ulf, le loup, dans les textes anciens[2], et il l'a remplacé en suédois. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En vieux norrois, vargr (forme nominative) est dérivé du proto-germanique *wargaz.
+Le mot est souvent employé comme synonyme de ulf, le loup, dans les textes anciens, et il l'a remplacé en suédois. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Mythologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un varg est, dans la mythologie nordique, un loup monstrueux et désigne plus particulièrement le loup Fenrir et ses fils Sköll et Hati. Cette lignée est issue d'une vieille femme-troll résidant dans Járnviðr, la Forêt de Fer, à l'est de Miðgarð[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un varg est, dans la mythologie nordique, un loup monstrueux et désigne plus particulièrement le loup Fenrir et ses fils Sköll et Hati. Cette lignée est issue d'une vieille femme-troll résidant dans Járnviðr, la Forêt de Fer, à l'est de Miðgarð.
 </t>
         </is>
       </c>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans la littérature
-J. R. R. Tolkien s'est inspiré de ce nom dans ses œuvres pour désigner une créature démoniaque semblable à un loup, qu'il appelle Warg.
-En musique
-Le concept a inspiré un certain nombre de musiciens de metal pour leurs noms de groupes et pour leurs pseudonymes[réf. nécessaire].
+          <t>Dans la littérature</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J. R. R. Tolkien s'est inspiré de ce nom dans ses œuvres pour désigner une créature démoniaque semblable à un loup, qu'il appelle Warg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Varg_(loup_mythique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Varg_(loup_mythique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Influences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En musique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept a inspiré un certain nombre de musiciens de metal pour leurs noms de groupes et pour leurs pseudonymes[réf. nécessaire].
 </t>
         </is>
       </c>
